--- a/US/data/CBS/NFIB/Current Job Openings.xlsx
+++ b/US/data/CBS/NFIB/Current Job Openings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20386"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD34ACC6-79E7-4A87-82B1-1B22A292B439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{12B7A9A5-D029-46D2-AF77-D53A054AF9E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7050" yWindow="1575" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="18195" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="478">
   <si>
     <t>Month/Year</t>
   </si>
@@ -37,24 +37,27 @@
     <t>1986/2/1</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>1986/3/1</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>1986/4/1</t>
+  </si>
+  <si>
     <t>15</t>
   </si>
   <si>
-    <t>1986/3/1</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>1986/4/1</t>
+    <t>1986/5/1</t>
   </si>
   <si>
     <t>16</t>
   </si>
   <si>
-    <t>1986/5/1</t>
-  </si>
-  <si>
     <t>1986/6/1</t>
   </si>
   <si>
@@ -67,9 +70,6 @@
     <t>1986/9/1</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>1986/10/1</t>
   </si>
   <si>
@@ -88,75 +88,75 @@
     <t>1987/2/1</t>
   </si>
   <si>
+    <t>1987/3/1</t>
+  </si>
+  <si>
+    <t>1987/4/1</t>
+  </si>
+  <si>
+    <t>1987/5/1</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>1987/6/1</t>
+  </si>
+  <si>
+    <t>1987/7/1</t>
+  </si>
+  <si>
+    <t>1987/8/1</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>1987/9/1</t>
+  </si>
+  <si>
+    <t>1987/10/1</t>
+  </si>
+  <si>
+    <t>1987/11/1</t>
+  </si>
+  <si>
+    <t>1987/12/1</t>
+  </si>
+  <si>
+    <t>1988/1/1</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>1988/2/1</t>
+  </si>
+  <si>
+    <t>1988/3/1</t>
+  </si>
+  <si>
+    <t>1988/4/1</t>
+  </si>
+  <si>
     <t>20</t>
   </si>
   <si>
-    <t>1987/3/1</t>
-  </si>
-  <si>
-    <t>1987/4/1</t>
-  </si>
-  <si>
-    <t>1987/5/1</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>1987/6/1</t>
-  </si>
-  <si>
-    <t>1987/7/1</t>
-  </si>
-  <si>
-    <t>1987/8/1</t>
-  </si>
-  <si>
-    <t>1987/9/1</t>
-  </si>
-  <si>
-    <t>1987/10/1</t>
-  </si>
-  <si>
-    <t>1987/11/1</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>1987/12/1</t>
+    <t>1988/5/1</t>
+  </si>
+  <si>
+    <t>1988/6/1</t>
+  </si>
+  <si>
+    <t>1988/7/1</t>
+  </si>
+  <si>
+    <t>1988/8/1</t>
   </si>
   <si>
     <t>23</t>
   </si>
   <si>
-    <t>1988/1/1</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>1988/2/1</t>
-  </si>
-  <si>
-    <t>1988/3/1</t>
-  </si>
-  <si>
-    <t>1988/4/1</t>
-  </si>
-  <si>
-    <t>1988/5/1</t>
-  </si>
-  <si>
-    <t>1988/6/1</t>
-  </si>
-  <si>
-    <t>1988/7/1</t>
-  </si>
-  <si>
-    <t>1988/8/1</t>
-  </si>
-  <si>
     <t>1988/9/1</t>
   </si>
   <si>
@@ -250,6 +250,9 @@
     <t>1991/2/1</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>1991/3/1</t>
   </si>
   <si>
@@ -259,9 +262,6 @@
     <t>1991/5/1</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>1991/6/1</t>
   </si>
   <si>
@@ -286,12 +286,12 @@
     <t>1991/12/1</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>1992/1/1</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>1992/2/1</t>
   </si>
   <si>
@@ -412,6 +412,9 @@
     <t>1995/5/1</t>
   </si>
   <si>
+    <t>26</t>
+  </si>
+  <si>
     <t>1995/6/1</t>
   </si>
   <si>
@@ -448,15 +451,12 @@
     <t>1996/5/1</t>
   </si>
   <si>
-    <t>26</t>
+    <t>27</t>
   </si>
   <si>
     <t>1996/6/1</t>
   </si>
   <si>
-    <t>27</t>
-  </si>
-  <si>
     <t>1996/7/1</t>
   </si>
   <si>
@@ -559,6 +559,9 @@
     <t>1998/12/1</t>
   </si>
   <si>
+    <t>30</t>
+  </si>
+  <si>
     <t>1999/1/1</t>
   </si>
   <si>
@@ -571,54 +574,57 @@
     <t>1999/4/1</t>
   </si>
   <si>
+    <t>1999/5/1</t>
+  </si>
+  <si>
+    <t>1999/6/1</t>
+  </si>
+  <si>
+    <t>1999/7/1</t>
+  </si>
+  <si>
+    <t>1999/8/1</t>
+  </si>
+  <si>
+    <t>1999/9/1</t>
+  </si>
+  <si>
+    <t>1999/10/1</t>
+  </si>
+  <si>
+    <t>1999/11/1</t>
+  </si>
+  <si>
+    <t>1999/12/1</t>
+  </si>
+  <si>
+    <t>2000/1/1</t>
+  </si>
+  <si>
+    <t>2000/2/1</t>
+  </si>
+  <si>
+    <t>2000/3/1</t>
+  </si>
+  <si>
     <t>33</t>
   </si>
   <si>
-    <t>1999/5/1</t>
-  </si>
-  <si>
-    <t>1999/6/1</t>
-  </si>
-  <si>
-    <t>1999/7/1</t>
-  </si>
-  <si>
-    <t>1999/8/1</t>
-  </si>
-  <si>
-    <t>1999/9/1</t>
-  </si>
-  <si>
-    <t>1999/10/1</t>
-  </si>
-  <si>
-    <t>1999/11/1</t>
-  </si>
-  <si>
-    <t>1999/12/1</t>
-  </si>
-  <si>
-    <t>2000/1/1</t>
-  </si>
-  <si>
-    <t>2000/2/1</t>
-  </si>
-  <si>
-    <t>2000/3/1</t>
-  </si>
-  <si>
     <t>2000/4/1</t>
   </si>
   <si>
     <t>2000/5/1</t>
   </si>
   <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>2000/6/1</t>
+  </si>
+  <si>
     <t>34</t>
   </si>
   <si>
-    <t>2000/6/1</t>
-  </si>
-  <si>
     <t>2000/7/1</t>
   </si>
   <si>
@@ -934,27 +940,30 @@
     <t>2009/2/1</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>2009/3/1</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>2009/4/1</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2009/5/1</t>
+  </si>
+  <si>
+    <t>2009/6/1</t>
+  </si>
+  <si>
+    <t>2009/7/1</t>
+  </si>
+  <si>
     <t>9</t>
   </si>
   <si>
-    <t>2009/5/1</t>
-  </si>
-  <si>
-    <t>2009/6/1</t>
-  </si>
-  <si>
-    <t>2009/7/1</t>
-  </si>
-  <si>
     <t>2009/8/1</t>
   </si>
   <si>
@@ -964,9 +973,6 @@
     <t>2009/9/1</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>2009/10/1</t>
   </si>
   <si>
@@ -1216,9 +1222,6 @@
     <t>2016/8/1</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
     <t>2016/9/1</t>
   </si>
   <si>
@@ -1252,9 +1255,6 @@
     <t>2017/7/1</t>
   </si>
   <si>
-    <t>35</t>
-  </si>
-  <si>
     <t>2017/8/1</t>
   </si>
   <si>
@@ -1312,7 +1312,7 @@
     <t>2018/12/1</t>
   </si>
   <si>
-    <t>40</t>
+    <t>39</t>
   </si>
   <si>
     <t>2019/1/1</t>
@@ -1324,9 +1324,6 @@
     <t>2019/3/1</t>
   </si>
   <si>
-    <t>39</t>
-  </si>
-  <si>
     <t>2019/4/1</t>
   </si>
   <si>
@@ -1405,13 +1402,13 @@
     <t>2021/4/1</t>
   </si>
   <si>
-    <t>44</t>
+    <t>43</t>
   </si>
   <si>
     <t>2021/5/1</t>
   </si>
   <si>
-    <t>48</t>
+    <t>49</t>
   </si>
   <si>
     <t>2021/6/1</t>
@@ -1423,19 +1420,40 @@
     <t>2021/7/1</t>
   </si>
   <si>
-    <t>49</t>
-  </si>
-  <si>
     <t>2021/8/1</t>
   </si>
   <si>
     <t>50</t>
   </si>
   <si>
+    <t>2021/9/1</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
     <t>2021/10/1</t>
   </si>
   <si>
+    <t>2021/11/1</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
     <t>2021/12/1</t>
+  </si>
+  <si>
+    <t>2022/1/1</t>
+  </si>
+  <si>
+    <t>2022/2/1</t>
+  </si>
+  <si>
+    <t>2022/3/1</t>
+  </si>
+  <si>
+    <t>2022/4/1</t>
   </si>
 </sst>
 </file>
@@ -1835,7 +1853,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B431"/>
+  <dimension ref="A1:B437"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1892,12 +1910,12 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -1905,26 +1923,26 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1948,7 +1966,7 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1964,12 +1982,12 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -1977,23 +1995,23 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
         <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
@@ -2001,7 +2019,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
@@ -2009,10 +2027,10 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
         <v>29</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2036,36 +2054,36 @@
         <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -2073,42 +2091,42 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" t="s">
         <v>44</v>
-      </c>
-      <c r="B33" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2116,7 +2134,7 @@
         <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2132,7 +2150,7 @@
         <v>48</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -2140,7 +2158,7 @@
         <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -2148,7 +2166,7 @@
         <v>50</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -2156,7 +2174,7 @@
         <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -2172,7 +2190,7 @@
         <v>53</v>
       </c>
       <c r="B41" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -2180,7 +2198,7 @@
         <v>54</v>
       </c>
       <c r="B42" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -2188,7 +2206,7 @@
         <v>55</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -2196,7 +2214,7 @@
         <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -2212,7 +2230,7 @@
         <v>58</v>
       </c>
       <c r="B46" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -2220,7 +2238,7 @@
         <v>59</v>
       </c>
       <c r="B47" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -2228,7 +2246,7 @@
         <v>60</v>
       </c>
       <c r="B48" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -2236,7 +2254,7 @@
         <v>61</v>
       </c>
       <c r="B49" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -2244,7 +2262,7 @@
         <v>62</v>
       </c>
       <c r="B50" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -2252,7 +2270,7 @@
         <v>63</v>
       </c>
       <c r="B51" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -2268,7 +2286,7 @@
         <v>65</v>
       </c>
       <c r="B53" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -2276,7 +2294,7 @@
         <v>66</v>
       </c>
       <c r="B54" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -2340,7 +2358,7 @@
         <v>74</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -2348,31 +2366,31 @@
         <v>75</v>
       </c>
       <c r="B63" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B64" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B65" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B66" t="s">
-        <v>79</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -2380,7 +2398,7 @@
         <v>80</v>
       </c>
       <c r="B67" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -2388,7 +2406,7 @@
         <v>81</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -2396,7 +2414,7 @@
         <v>82</v>
       </c>
       <c r="B69" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -2404,7 +2422,7 @@
         <v>83</v>
       </c>
       <c r="B70" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -2412,7 +2430,7 @@
         <v>84</v>
       </c>
       <c r="B71" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -2428,15 +2446,15 @@
         <v>87</v>
       </c>
       <c r="B73" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>89</v>
+      </c>
+      <c r="B74" t="s">
         <v>88</v>
-      </c>
-      <c r="B74" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -2444,7 +2462,7 @@
         <v>90</v>
       </c>
       <c r="B75" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -2452,7 +2470,7 @@
         <v>91</v>
       </c>
       <c r="B76" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -2460,7 +2478,7 @@
         <v>92</v>
       </c>
       <c r="B77" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -2468,7 +2486,7 @@
         <v>93</v>
       </c>
       <c r="B78" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -2476,7 +2494,7 @@
         <v>94</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -2484,7 +2502,7 @@
         <v>95</v>
       </c>
       <c r="B80" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -2492,7 +2510,7 @@
         <v>96</v>
       </c>
       <c r="B81" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -2500,7 +2518,7 @@
         <v>97</v>
       </c>
       <c r="B82" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -2508,7 +2526,7 @@
         <v>98</v>
       </c>
       <c r="B83" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -2516,7 +2534,7 @@
         <v>99</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -2532,7 +2550,7 @@
         <v>101</v>
       </c>
       <c r="B86" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -2548,7 +2566,7 @@
         <v>103</v>
       </c>
       <c r="B88" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -2564,7 +2582,7 @@
         <v>105</v>
       </c>
       <c r="B90" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -2572,7 +2590,7 @@
         <v>106</v>
       </c>
       <c r="B91" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -2580,7 +2598,7 @@
         <v>107</v>
       </c>
       <c r="B92" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -2588,7 +2606,7 @@
         <v>108</v>
       </c>
       <c r="B93" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -2596,7 +2614,7 @@
         <v>109</v>
       </c>
       <c r="B94" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -2620,7 +2638,7 @@
         <v>112</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -2636,7 +2654,7 @@
         <v>114</v>
       </c>
       <c r="B99" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -2652,7 +2670,7 @@
         <v>116</v>
       </c>
       <c r="B101" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -2660,7 +2678,7 @@
         <v>117</v>
       </c>
       <c r="B102" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -2676,7 +2694,7 @@
         <v>119</v>
       </c>
       <c r="B104" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -2684,7 +2702,7 @@
         <v>120</v>
       </c>
       <c r="B105" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -2692,7 +2710,7 @@
         <v>121</v>
       </c>
       <c r="B106" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -2700,7 +2718,7 @@
         <v>122</v>
       </c>
       <c r="B107" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -2708,7 +2726,7 @@
         <v>123</v>
       </c>
       <c r="B108" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -2716,7 +2734,7 @@
         <v>124</v>
       </c>
       <c r="B109" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -2732,7 +2750,7 @@
         <v>126</v>
       </c>
       <c r="B111" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -2740,7 +2758,7 @@
         <v>127</v>
       </c>
       <c r="B112" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -2748,7 +2766,7 @@
         <v>128</v>
       </c>
       <c r="B113" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -2756,111 +2774,111 @@
         <v>129</v>
       </c>
       <c r="B114" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B115" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B116" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B117" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B118" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B119" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B120" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B121" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B122" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B123" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B124" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B125" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B126" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
+        <v>144</v>
+      </c>
+      <c r="B127" t="s">
         <v>143</v>
-      </c>
-      <c r="B127" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -2868,7 +2886,7 @@
         <v>145</v>
       </c>
       <c r="B128" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -2892,7 +2910,7 @@
         <v>149</v>
       </c>
       <c r="B131" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -2900,7 +2918,7 @@
         <v>150</v>
       </c>
       <c r="B132" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -2908,7 +2926,7 @@
         <v>151</v>
       </c>
       <c r="B133" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -2916,7 +2934,7 @@
         <v>152</v>
       </c>
       <c r="B134" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -2924,7 +2942,7 @@
         <v>153</v>
       </c>
       <c r="B135" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -2940,7 +2958,7 @@
         <v>155</v>
       </c>
       <c r="B137" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -2948,7 +2966,7 @@
         <v>156</v>
       </c>
       <c r="B138" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -2956,7 +2974,7 @@
         <v>157</v>
       </c>
       <c r="B139" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -2972,7 +2990,7 @@
         <v>160</v>
       </c>
       <c r="B141" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -3004,7 +3022,7 @@
         <v>164</v>
       </c>
       <c r="B145" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -3012,7 +3030,7 @@
         <v>165</v>
       </c>
       <c r="B146" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -3020,7 +3038,7 @@
         <v>166</v>
       </c>
       <c r="B147" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -3036,7 +3054,7 @@
         <v>168</v>
       </c>
       <c r="B149" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -3044,7 +3062,7 @@
         <v>169</v>
       </c>
       <c r="B150" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -3076,7 +3094,7 @@
         <v>174</v>
       </c>
       <c r="B154" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -3100,12 +3118,12 @@
         <v>178</v>
       </c>
       <c r="B157" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
@@ -3113,15 +3131,15 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B159" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B160" t="s">
         <v>176</v>
@@ -3129,10 +3147,10 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B161" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -3140,7 +3158,7 @@
         <v>184</v>
       </c>
       <c r="B162" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -3164,7 +3182,7 @@
         <v>187</v>
       </c>
       <c r="B165" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -3196,7 +3214,7 @@
         <v>191</v>
       </c>
       <c r="B169" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -3212,7 +3230,7 @@
         <v>193</v>
       </c>
       <c r="B171" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -3220,52 +3238,52 @@
         <v>194</v>
       </c>
       <c r="B172" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B173" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B174" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B175" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B176" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>202</v>
+      </c>
+      <c r="B177" t="s">
         <v>200</v>
-      </c>
-      <c r="B177" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B178" t="s">
         <v>176</v>
@@ -3273,7 +3291,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B179" t="s">
         <v>176</v>
@@ -3281,23 +3299,23 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B180" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B181" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B182" t="s">
         <v>171</v>
@@ -3305,55 +3323,55 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B183" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B184" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B185" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B186" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B187" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B188" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B189" t="s">
         <v>159</v>
@@ -3361,23 +3379,23 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B190" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B191" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B192" t="s">
         <v>7</v>
@@ -3385,15 +3403,15 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B193" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B194" t="s">
         <v>7</v>
@@ -3401,55 +3419,55 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B195" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B196" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B197" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B199" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B200" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B201" t="s">
         <v>7</v>
@@ -3457,15 +3475,15 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B202" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B203" t="s">
         <v>7</v>
@@ -3473,15 +3491,15 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B204" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B205" t="s">
         <v>9</v>
@@ -3489,7 +3507,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B206" t="s">
         <v>7</v>
@@ -3497,15 +3515,15 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B207" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B208" t="s">
         <v>3</v>
@@ -3513,47 +3531,47 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B209" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B210" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B211" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B212" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B213" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B214" t="s">
         <v>7</v>
@@ -3561,7 +3579,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B215" t="s">
         <v>3</v>
@@ -3569,7 +3587,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B216" t="s">
         <v>7</v>
@@ -3577,15 +3595,15 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B217" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B218" t="s">
         <v>7</v>
@@ -3593,111 +3611,111 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B219" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B220" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B221" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B222" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B223" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B224" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B225" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B226" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B227" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B228" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B229" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B230" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B231" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B232" t="s">
         <v>47</v>
@@ -3705,127 +3723,127 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B233" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B234" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B235" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B236" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B237" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B238" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B239" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B240" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B241" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B242" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B243" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B244" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B245" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B246" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B247" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B248" t="s">
         <v>47</v>
@@ -3833,7 +3851,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B249" t="s">
         <v>47</v>
@@ -3841,95 +3859,95 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B250" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B251" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B252" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B253" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B254" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B255" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B256" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B257" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B258" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B259" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B260" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B261" t="s">
         <v>47</v>
@@ -3937,39 +3955,39 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B262" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B263" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B264" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B265" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B266" t="s">
         <v>47</v>
@@ -3977,15 +3995,15 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B267" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B268" t="s">
         <v>7</v>
@@ -3993,31 +4011,31 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B269" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B270" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B271" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B272" t="s">
         <v>17</v>
@@ -4025,15 +4043,15 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B273" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B274" t="s">
         <v>3</v>
@@ -4041,23 +4059,23 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B275" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B276" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B277" t="s">
         <v>5</v>
@@ -4065,7 +4083,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B278" t="s">
         <v>86</v>
@@ -4073,39 +4091,39 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B279" t="s">
-        <v>86</v>
+        <v>306</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B280" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B281" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B282" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B283" t="s">
         <v>86</v>
@@ -4113,119 +4131,119 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B284" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B285" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B286" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B287" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B288" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B289" t="s">
-        <v>86</v>
+        <v>306</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B290" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B291" t="s">
-        <v>86</v>
+        <v>306</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B292" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B293" t="s">
-        <v>86</v>
+        <v>306</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B294" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B295" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B296" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B297" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B298" t="s">
         <v>86</v>
@@ -4233,39 +4251,39 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B299" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B300" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B301" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B302" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B303" t="s">
         <v>5</v>
@@ -4273,71 +4291,71 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B304" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B305" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B306" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B307" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B308" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B309" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B310" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B311" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B312" t="s">
         <v>17</v>
@@ -4345,7 +4363,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B313" t="s">
         <v>9</v>
@@ -4353,7 +4371,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B314" t="s">
         <v>3</v>
@@ -4361,55 +4379,55 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B315" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B316" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B317" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B318" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B319" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B320" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B321" t="s">
         <v>17</v>
@@ -4417,7 +4435,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B322" t="s">
         <v>17</v>
@@ -4425,15 +4443,15 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B323" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B324" t="s">
         <v>3</v>
@@ -4441,15 +4459,15 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B325" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B326" t="s">
         <v>3</v>
@@ -4457,15 +4475,15 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B327" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B328" t="s">
         <v>3</v>
@@ -4473,23 +4491,23 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B329" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B330" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B331" t="s">
         <v>7</v>
@@ -4497,15 +4515,15 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B332" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B333" t="s">
         <v>3</v>
@@ -4513,23 +4531,23 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B334" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B335" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B336" t="s">
         <v>47</v>
@@ -4537,63 +4555,63 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B337" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B338" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B339" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B340" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B341" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B342" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B343" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B344" t="s">
         <v>47</v>
@@ -4601,23 +4619,23 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B345" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B346" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B347" t="s">
         <v>47</v>
@@ -4625,39 +4643,39 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B348" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B349" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B350" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B351" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B352" t="s">
         <v>47</v>
@@ -4665,23 +4683,23 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B353" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B354" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B355" t="s">
         <v>47</v>
@@ -4689,15 +4707,15 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B356" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B357" t="s">
         <v>147</v>
@@ -4705,23 +4723,23 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B358" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B359" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B360" t="s">
         <v>147</v>
@@ -4729,15 +4747,15 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B361" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B362" t="s">
         <v>159</v>
@@ -4745,39 +4763,39 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B363" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B364" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B365" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B366" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B367" t="s">
         <v>159</v>
@@ -4785,23 +4803,23 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B368" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B369" t="s">
-        <v>398</v>
+        <v>179</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B370" t="s">
         <v>47</v>
@@ -4809,7 +4827,7 @@
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B371" t="s">
         <v>147</v>
@@ -4817,7 +4835,7 @@
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B372" t="s">
         <v>171</v>
@@ -4825,15 +4843,15 @@
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B373" t="s">
-        <v>398</v>
+        <v>159</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B374" t="s">
         <v>171</v>
@@ -4841,50 +4859,50 @@
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B375" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B376" t="s">
-        <v>398</v>
+        <v>179</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B377" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B378" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B379" t="s">
-        <v>398</v>
+        <v>179</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B380" t="s">
-        <v>410</v>
+        <v>198</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
@@ -4900,7 +4918,7 @@
         <v>412</v>
       </c>
       <c r="B382" t="s">
-        <v>398</v>
+        <v>179</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
@@ -4908,7 +4926,7 @@
         <v>413</v>
       </c>
       <c r="B383" t="s">
-        <v>410</v>
+        <v>198</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
@@ -4916,7 +4934,7 @@
         <v>414</v>
       </c>
       <c r="B384" t="s">
-        <v>398</v>
+        <v>179</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
@@ -4924,7 +4942,7 @@
         <v>415</v>
       </c>
       <c r="B385" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
@@ -4932,7 +4950,7 @@
         <v>416</v>
       </c>
       <c r="B386" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
@@ -4940,7 +4958,7 @@
         <v>417</v>
       </c>
       <c r="B387" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
@@ -4948,7 +4966,7 @@
         <v>418</v>
       </c>
       <c r="B388" t="s">
-        <v>410</v>
+        <v>198</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
@@ -4956,7 +4974,7 @@
         <v>419</v>
       </c>
       <c r="B389" t="s">
-        <v>410</v>
+        <v>200</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
@@ -4964,7 +4982,7 @@
         <v>420</v>
       </c>
       <c r="B390" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
@@ -4972,7 +4990,7 @@
         <v>421</v>
       </c>
       <c r="B391" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
@@ -5012,7 +5030,7 @@
         <v>428</v>
       </c>
       <c r="B396" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
@@ -5028,7 +5046,7 @@
         <v>431</v>
       </c>
       <c r="B398" t="s">
-        <v>410</v>
+        <v>198</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
@@ -5036,7 +5054,7 @@
         <v>432</v>
       </c>
       <c r="B399" t="s">
-        <v>423</v>
+        <v>206</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
@@ -5044,68 +5062,68 @@
         <v>433</v>
       </c>
       <c r="B400" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B401" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B402" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B403" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B404" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B405" t="s">
-        <v>410</v>
+        <v>198</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B406" t="s">
-        <v>410</v>
+        <v>198</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B407" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B408" t="s">
         <v>426</v>
@@ -5113,55 +5131,55 @@
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B409" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B410" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B411" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B412" t="s">
-        <v>410</v>
+        <v>198</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B413" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B414" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B415" t="s">
         <v>176</v>
@@ -5169,63 +5187,63 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B416" t="s">
-        <v>398</v>
+        <v>179</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B417" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B418" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B419" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B420" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B421" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B422" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B423" t="s">
         <v>430</v>
@@ -5233,72 +5251,119 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
+        <v>457</v>
+      </c>
+      <c r="B424" t="s">
         <v>458</v>
-      </c>
-      <c r="B424" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
+        <v>459</v>
+      </c>
+      <c r="B425" t="s">
         <v>460</v>
-      </c>
-      <c r="B425" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
+        <v>461</v>
+      </c>
+      <c r="B426" t="s">
         <v>462</v>
-      </c>
-      <c r="B426" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
+        <v>463</v>
+      </c>
+      <c r="B427" t="s">
         <v>464</v>
-      </c>
-      <c r="B427" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B428" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B429" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B430" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
+        <v>470</v>
+      </c>
+      <c r="B431" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
         <v>471</v>
       </c>
-      <c r="B431" t="s">
-        <v>469</v>
+      <c r="B432" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>473</v>
+      </c>
+      <c r="B433" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>474</v>
+      </c>
+      <c r="B434" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>475</v>
+      </c>
+      <c r="B435" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>476</v>
+      </c>
+      <c r="B436" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>477</v>
+      </c>
+      <c r="B437" t="s">
+        <v>464</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/US/data/CBS/NFIB/Current Job Openings.xlsx
+++ b/US/data/CBS/NFIB/Current Job Openings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20386"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20387"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12B7A9A5-D029-46D2-AF77-D53A054AF9E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1702FF08-9940-4FA9-869A-9DBD0DE175C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="18195" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="481">
   <si>
     <t>Month/Year</t>
   </si>
@@ -49,15 +49,15 @@
     <t>1986/4/1</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>1986/5/1</t>
+  </si>
+  <si>
     <t>15</t>
   </si>
   <si>
-    <t>1986/5/1</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
     <t>1986/6/1</t>
   </si>
   <si>
@@ -97,30 +97,33 @@
     <t>1987/5/1</t>
   </si>
   <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>1987/6/1</t>
+  </si>
+  <si>
+    <t>1987/7/1</t>
+  </si>
+  <si>
+    <t>1987/8/1</t>
+  </si>
+  <si>
+    <t>1987/9/1</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>1987/10/1</t>
+  </si>
+  <si>
+    <t>1987/11/1</t>
+  </si>
+  <si>
     <t>22</t>
   </si>
   <si>
-    <t>1987/6/1</t>
-  </si>
-  <si>
-    <t>1987/7/1</t>
-  </si>
-  <si>
-    <t>1987/8/1</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>1987/9/1</t>
-  </si>
-  <si>
-    <t>1987/10/1</t>
-  </si>
-  <si>
-    <t>1987/11/1</t>
-  </si>
-  <si>
     <t>1987/12/1</t>
   </si>
   <si>
@@ -139,9 +142,6 @@
     <t>1988/4/1</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>1988/5/1</t>
   </si>
   <si>
@@ -160,12 +160,12 @@
     <t>1988/9/1</t>
   </si>
   <si>
+    <t>24</t>
+  </si>
+  <si>
     <t>1988/10/1</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
     <t>1988/11/1</t>
   </si>
   <si>
@@ -412,51 +412,51 @@
     <t>1995/5/1</t>
   </si>
   <si>
+    <t>1995/6/1</t>
+  </si>
+  <si>
+    <t>1995/7/1</t>
+  </si>
+  <si>
+    <t>1995/8/1</t>
+  </si>
+  <si>
+    <t>1995/9/1</t>
+  </si>
+  <si>
+    <t>1995/10/1</t>
+  </si>
+  <si>
+    <t>1995/11/1</t>
+  </si>
+  <si>
+    <t>1995/12/1</t>
+  </si>
+  <si>
+    <t>1996/1/1</t>
+  </si>
+  <si>
+    <t>1996/2/1</t>
+  </si>
+  <si>
+    <t>1996/3/1</t>
+  </si>
+  <si>
+    <t>1996/4/1</t>
+  </si>
+  <si>
+    <t>1996/5/1</t>
+  </si>
+  <si>
     <t>26</t>
   </si>
   <si>
-    <t>1995/6/1</t>
-  </si>
-  <si>
-    <t>1995/7/1</t>
-  </si>
-  <si>
-    <t>1995/8/1</t>
-  </si>
-  <si>
-    <t>1995/9/1</t>
-  </si>
-  <si>
-    <t>1995/10/1</t>
-  </si>
-  <si>
-    <t>1995/11/1</t>
-  </si>
-  <si>
-    <t>1995/12/1</t>
-  </si>
-  <si>
-    <t>1996/1/1</t>
-  </si>
-  <si>
-    <t>1996/2/1</t>
-  </si>
-  <si>
-    <t>1996/3/1</t>
-  </si>
-  <si>
-    <t>1996/4/1</t>
-  </si>
-  <si>
-    <t>1996/5/1</t>
+    <t>1996/6/1</t>
   </si>
   <si>
     <t>27</t>
   </si>
   <si>
-    <t>1996/6/1</t>
-  </si>
-  <si>
     <t>1996/7/1</t>
   </si>
   <si>
@@ -574,6 +574,9 @@
     <t>1999/4/1</t>
   </si>
   <si>
+    <t>33</t>
+  </si>
+  <si>
     <t>1999/5/1</t>
   </si>
   <si>
@@ -607,654 +610,651 @@
     <t>2000/3/1</t>
   </si>
   <si>
-    <t>33</t>
-  </si>
-  <si>
     <t>2000/4/1</t>
   </si>
   <si>
     <t>2000/5/1</t>
   </si>
   <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>2000/6/1</t>
+  </si>
+  <si>
+    <t>2000/7/1</t>
+  </si>
+  <si>
+    <t>2000/8/1</t>
+  </si>
+  <si>
+    <t>2000/9/1</t>
+  </si>
+  <si>
+    <t>2000/10/1</t>
+  </si>
+  <si>
+    <t>2000/11/1</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>2000/12/1</t>
+  </si>
+  <si>
+    <t>2001/1/1</t>
+  </si>
+  <si>
+    <t>2001/2/1</t>
+  </si>
+  <si>
+    <t>2001/3/1</t>
+  </si>
+  <si>
+    <t>2001/4/1</t>
+  </si>
+  <si>
+    <t>2001/5/1</t>
+  </si>
+  <si>
+    <t>2001/6/1</t>
+  </si>
+  <si>
+    <t>2001/7/1</t>
+  </si>
+  <si>
+    <t>2001/8/1</t>
+  </si>
+  <si>
+    <t>2001/9/1</t>
+  </si>
+  <si>
+    <t>2001/10/1</t>
+  </si>
+  <si>
+    <t>2001/11/1</t>
+  </si>
+  <si>
+    <t>2001/12/1</t>
+  </si>
+  <si>
+    <t>2002/1/1</t>
+  </si>
+  <si>
+    <t>2002/2/1</t>
+  </si>
+  <si>
+    <t>2002/3/1</t>
+  </si>
+  <si>
+    <t>2002/4/1</t>
+  </si>
+  <si>
+    <t>2002/5/1</t>
+  </si>
+  <si>
+    <t>2002/6/1</t>
+  </si>
+  <si>
+    <t>2002/7/1</t>
+  </si>
+  <si>
+    <t>2002/8/1</t>
+  </si>
+  <si>
+    <t>2002/9/1</t>
+  </si>
+  <si>
+    <t>2002/10/1</t>
+  </si>
+  <si>
+    <t>2002/11/1</t>
+  </si>
+  <si>
+    <t>2002/12/1</t>
+  </si>
+  <si>
+    <t>2003/1/1</t>
+  </si>
+  <si>
+    <t>2003/2/1</t>
+  </si>
+  <si>
+    <t>2003/3/1</t>
+  </si>
+  <si>
+    <t>2003/4/1</t>
+  </si>
+  <si>
+    <t>2003/5/1</t>
+  </si>
+  <si>
+    <t>2003/6/1</t>
+  </si>
+  <si>
+    <t>2003/7/1</t>
+  </si>
+  <si>
+    <t>2003/8/1</t>
+  </si>
+  <si>
+    <t>2003/9/1</t>
+  </si>
+  <si>
+    <t>2003/10/1</t>
+  </si>
+  <si>
+    <t>2003/11/1</t>
+  </si>
+  <si>
+    <t>2003/12/1</t>
+  </si>
+  <si>
+    <t>2004/1/1</t>
+  </si>
+  <si>
+    <t>2004/2/1</t>
+  </si>
+  <si>
+    <t>2004/3/1</t>
+  </si>
+  <si>
+    <t>2004/4/1</t>
+  </si>
+  <si>
+    <t>2004/5/1</t>
+  </si>
+  <si>
+    <t>2004/6/1</t>
+  </si>
+  <si>
+    <t>2004/7/1</t>
+  </si>
+  <si>
+    <t>2004/8/1</t>
+  </si>
+  <si>
+    <t>2004/9/1</t>
+  </si>
+  <si>
+    <t>2004/10/1</t>
+  </si>
+  <si>
+    <t>2004/11/1</t>
+  </si>
+  <si>
+    <t>2004/12/1</t>
+  </si>
+  <si>
+    <t>2005/1/1</t>
+  </si>
+  <si>
+    <t>2005/2/1</t>
+  </si>
+  <si>
+    <t>2005/3/1</t>
+  </si>
+  <si>
+    <t>2005/4/1</t>
+  </si>
+  <si>
+    <t>2005/5/1</t>
+  </si>
+  <si>
+    <t>2005/6/1</t>
+  </si>
+  <si>
+    <t>2005/7/1</t>
+  </si>
+  <si>
+    <t>2005/8/1</t>
+  </si>
+  <si>
+    <t>2005/9/1</t>
+  </si>
+  <si>
+    <t>2005/10/1</t>
+  </si>
+  <si>
+    <t>2005/11/1</t>
+  </si>
+  <si>
+    <t>2005/12/1</t>
+  </si>
+  <si>
+    <t>2006/1/1</t>
+  </si>
+  <si>
+    <t>2006/2/1</t>
+  </si>
+  <si>
+    <t>2006/3/1</t>
+  </si>
+  <si>
+    <t>2006/4/1</t>
+  </si>
+  <si>
+    <t>2006/5/1</t>
+  </si>
+  <si>
+    <t>2006/6/1</t>
+  </si>
+  <si>
+    <t>2006/7/1</t>
+  </si>
+  <si>
+    <t>2006/8/1</t>
+  </si>
+  <si>
+    <t>2006/9/1</t>
+  </si>
+  <si>
+    <t>2006/10/1</t>
+  </si>
+  <si>
+    <t>2006/11/1</t>
+  </si>
+  <si>
+    <t>2006/12/1</t>
+  </si>
+  <si>
+    <t>2007/1/1</t>
+  </si>
+  <si>
+    <t>2007/2/1</t>
+  </si>
+  <si>
+    <t>2007/3/1</t>
+  </si>
+  <si>
+    <t>2007/4/1</t>
+  </si>
+  <si>
+    <t>2007/5/1</t>
+  </si>
+  <si>
+    <t>2007/6/1</t>
+  </si>
+  <si>
+    <t>2007/7/1</t>
+  </si>
+  <si>
+    <t>2007/8/1</t>
+  </si>
+  <si>
+    <t>2007/9/1</t>
+  </si>
+  <si>
+    <t>2007/10/1</t>
+  </si>
+  <si>
+    <t>2007/11/1</t>
+  </si>
+  <si>
+    <t>2007/12/1</t>
+  </si>
+  <si>
+    <t>2008/1/1</t>
+  </si>
+  <si>
+    <t>2008/2/1</t>
+  </si>
+  <si>
+    <t>2008/3/1</t>
+  </si>
+  <si>
+    <t>2008/4/1</t>
+  </si>
+  <si>
+    <t>2008/5/1</t>
+  </si>
+  <si>
+    <t>2008/6/1</t>
+  </si>
+  <si>
+    <t>2008/7/1</t>
+  </si>
+  <si>
+    <t>2008/8/1</t>
+  </si>
+  <si>
+    <t>2008/9/1</t>
+  </si>
+  <si>
+    <t>2008/10/1</t>
+  </si>
+  <si>
+    <t>2008/11/1</t>
+  </si>
+  <si>
+    <t>2008/12/1</t>
+  </si>
+  <si>
+    <t>2009/1/1</t>
+  </si>
+  <si>
+    <t>2009/2/1</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2009/3/1</t>
+  </si>
+  <si>
+    <t>2009/4/1</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>2009/5/1</t>
+  </si>
+  <si>
+    <t>2009/6/1</t>
+  </si>
+  <si>
+    <t>2009/7/1</t>
+  </si>
+  <si>
+    <t>2009/8/1</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>2009/9/1</t>
+  </si>
+  <si>
+    <t>2009/10/1</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2009/11/1</t>
+  </si>
+  <si>
+    <t>2009/12/1</t>
+  </si>
+  <si>
+    <t>2010/1/1</t>
+  </si>
+  <si>
+    <t>2010/2/1</t>
+  </si>
+  <si>
+    <t>2010/3/1</t>
+  </si>
+  <si>
+    <t>2010/4/1</t>
+  </si>
+  <si>
+    <t>2010/5/1</t>
+  </si>
+  <si>
+    <t>2010/6/1</t>
+  </si>
+  <si>
+    <t>2010/7/1</t>
+  </si>
+  <si>
+    <t>2010/8/1</t>
+  </si>
+  <si>
+    <t>2010/9/1</t>
+  </si>
+  <si>
+    <t>2010/10/1</t>
+  </si>
+  <si>
+    <t>2010/11/1</t>
+  </si>
+  <si>
+    <t>2010/12/1</t>
+  </si>
+  <si>
+    <t>2011/1/1</t>
+  </si>
+  <si>
+    <t>2011/2/1</t>
+  </si>
+  <si>
+    <t>2011/3/1</t>
+  </si>
+  <si>
+    <t>2011/4/1</t>
+  </si>
+  <si>
+    <t>2011/5/1</t>
+  </si>
+  <si>
+    <t>2011/6/1</t>
+  </si>
+  <si>
+    <t>2011/7/1</t>
+  </si>
+  <si>
+    <t>2011/8/1</t>
+  </si>
+  <si>
+    <t>2011/9/1</t>
+  </si>
+  <si>
+    <t>2011/10/1</t>
+  </si>
+  <si>
+    <t>2011/11/1</t>
+  </si>
+  <si>
+    <t>2011/12/1</t>
+  </si>
+  <si>
+    <t>2012/1/1</t>
+  </si>
+  <si>
+    <t>2012/2/1</t>
+  </si>
+  <si>
+    <t>2012/3/1</t>
+  </si>
+  <si>
+    <t>2012/4/1</t>
+  </si>
+  <si>
+    <t>2012/5/1</t>
+  </si>
+  <si>
+    <t>2012/6/1</t>
+  </si>
+  <si>
+    <t>2012/7/1</t>
+  </si>
+  <si>
+    <t>2012/8/1</t>
+  </si>
+  <si>
+    <t>2012/9/1</t>
+  </si>
+  <si>
+    <t>2012/10/1</t>
+  </si>
+  <si>
+    <t>2012/11/1</t>
+  </si>
+  <si>
+    <t>2012/12/1</t>
+  </si>
+  <si>
+    <t>2013/1/1</t>
+  </si>
+  <si>
+    <t>2013/2/1</t>
+  </si>
+  <si>
+    <t>2013/3/1</t>
+  </si>
+  <si>
+    <t>2013/4/1</t>
+  </si>
+  <si>
+    <t>2013/5/1</t>
+  </si>
+  <si>
+    <t>2013/6/1</t>
+  </si>
+  <si>
+    <t>2013/7/1</t>
+  </si>
+  <si>
+    <t>2013/8/1</t>
+  </si>
+  <si>
+    <t>2013/9/1</t>
+  </si>
+  <si>
+    <t>2013/10/1</t>
+  </si>
+  <si>
+    <t>2013/11/1</t>
+  </si>
+  <si>
+    <t>2013/12/1</t>
+  </si>
+  <si>
+    <t>2014/1/1</t>
+  </si>
+  <si>
+    <t>2014/2/1</t>
+  </si>
+  <si>
+    <t>2014/3/1</t>
+  </si>
+  <si>
+    <t>2014/4/1</t>
+  </si>
+  <si>
+    <t>2014/5/1</t>
+  </si>
+  <si>
+    <t>2014/6/1</t>
+  </si>
+  <si>
+    <t>2014/7/1</t>
+  </si>
+  <si>
+    <t>2014/8/1</t>
+  </si>
+  <si>
+    <t>2014/9/1</t>
+  </si>
+  <si>
+    <t>2014/10/1</t>
+  </si>
+  <si>
+    <t>2014/11/1</t>
+  </si>
+  <si>
+    <t>2014/12/1</t>
+  </si>
+  <si>
+    <t>2015/1/1</t>
+  </si>
+  <si>
+    <t>2015/2/1</t>
+  </si>
+  <si>
+    <t>2015/3/1</t>
+  </si>
+  <si>
+    <t>2015/4/1</t>
+  </si>
+  <si>
+    <t>2015/5/1</t>
+  </si>
+  <si>
+    <t>2015/6/1</t>
+  </si>
+  <si>
+    <t>2015/7/1</t>
+  </si>
+  <si>
+    <t>2015/8/1</t>
+  </si>
+  <si>
+    <t>2015/9/1</t>
+  </si>
+  <si>
+    <t>2015/10/1</t>
+  </si>
+  <si>
+    <t>2015/11/1</t>
+  </si>
+  <si>
+    <t>2015/12/1</t>
+  </si>
+  <si>
+    <t>2016/1/1</t>
+  </si>
+  <si>
+    <t>2016/2/1</t>
+  </si>
+  <si>
+    <t>2016/3/1</t>
+  </si>
+  <si>
+    <t>2016/4/1</t>
+  </si>
+  <si>
+    <t>2016/5/1</t>
+  </si>
+  <si>
+    <t>2016/6/1</t>
+  </si>
+  <si>
+    <t>2016/7/1</t>
+  </si>
+  <si>
+    <t>2016/8/1</t>
+  </si>
+  <si>
+    <t>2016/9/1</t>
+  </si>
+  <si>
+    <t>2016/10/1</t>
+  </si>
+  <si>
+    <t>2016/11/1</t>
+  </si>
+  <si>
+    <t>2016/12/1</t>
+  </si>
+  <si>
+    <t>2017/1/1</t>
+  </si>
+  <si>
+    <t>2017/2/1</t>
+  </si>
+  <si>
+    <t>2017/3/1</t>
+  </si>
+  <si>
+    <t>2017/4/1</t>
+  </si>
+  <si>
+    <t>2017/5/1</t>
+  </si>
+  <si>
+    <t>2017/6/1</t>
+  </si>
+  <si>
+    <t>2017/7/1</t>
+  </si>
+  <si>
     <t>35</t>
   </si>
   <si>
-    <t>2000/6/1</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>2000/7/1</t>
-  </si>
-  <si>
-    <t>2000/8/1</t>
-  </si>
-  <si>
-    <t>2000/9/1</t>
-  </si>
-  <si>
-    <t>2000/10/1</t>
-  </si>
-  <si>
-    <t>2000/11/1</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>2000/12/1</t>
-  </si>
-  <si>
-    <t>2001/1/1</t>
-  </si>
-  <si>
-    <t>2001/2/1</t>
-  </si>
-  <si>
-    <t>2001/3/1</t>
-  </si>
-  <si>
-    <t>2001/4/1</t>
-  </si>
-  <si>
-    <t>2001/5/1</t>
-  </si>
-  <si>
-    <t>2001/6/1</t>
-  </si>
-  <si>
-    <t>2001/7/1</t>
-  </si>
-  <si>
-    <t>2001/8/1</t>
-  </si>
-  <si>
-    <t>2001/9/1</t>
-  </si>
-  <si>
-    <t>2001/10/1</t>
-  </si>
-  <si>
-    <t>2001/11/1</t>
-  </si>
-  <si>
-    <t>2001/12/1</t>
-  </si>
-  <si>
-    <t>2002/1/1</t>
-  </si>
-  <si>
-    <t>2002/2/1</t>
-  </si>
-  <si>
-    <t>2002/3/1</t>
-  </si>
-  <si>
-    <t>2002/4/1</t>
-  </si>
-  <si>
-    <t>2002/5/1</t>
-  </si>
-  <si>
-    <t>2002/6/1</t>
-  </si>
-  <si>
-    <t>2002/7/1</t>
-  </si>
-  <si>
-    <t>2002/8/1</t>
-  </si>
-  <si>
-    <t>2002/9/1</t>
-  </si>
-  <si>
-    <t>2002/10/1</t>
-  </si>
-  <si>
-    <t>2002/11/1</t>
-  </si>
-  <si>
-    <t>2002/12/1</t>
-  </si>
-  <si>
-    <t>2003/1/1</t>
-  </si>
-  <si>
-    <t>2003/2/1</t>
-  </si>
-  <si>
-    <t>2003/3/1</t>
-  </si>
-  <si>
-    <t>2003/4/1</t>
-  </si>
-  <si>
-    <t>2003/5/1</t>
-  </si>
-  <si>
-    <t>2003/6/1</t>
-  </si>
-  <si>
-    <t>2003/7/1</t>
-  </si>
-  <si>
-    <t>2003/8/1</t>
-  </si>
-  <si>
-    <t>2003/9/1</t>
-  </si>
-  <si>
-    <t>2003/10/1</t>
-  </si>
-  <si>
-    <t>2003/11/1</t>
-  </si>
-  <si>
-    <t>2003/12/1</t>
-  </si>
-  <si>
-    <t>2004/1/1</t>
-  </si>
-  <si>
-    <t>2004/2/1</t>
-  </si>
-  <si>
-    <t>2004/3/1</t>
-  </si>
-  <si>
-    <t>2004/4/1</t>
-  </si>
-  <si>
-    <t>2004/5/1</t>
-  </si>
-  <si>
-    <t>2004/6/1</t>
-  </si>
-  <si>
-    <t>2004/7/1</t>
-  </si>
-  <si>
-    <t>2004/8/1</t>
-  </si>
-  <si>
-    <t>2004/9/1</t>
-  </si>
-  <si>
-    <t>2004/10/1</t>
-  </si>
-  <si>
-    <t>2004/11/1</t>
-  </si>
-  <si>
-    <t>2004/12/1</t>
-  </si>
-  <si>
-    <t>2005/1/1</t>
-  </si>
-  <si>
-    <t>2005/2/1</t>
-  </si>
-  <si>
-    <t>2005/3/1</t>
-  </si>
-  <si>
-    <t>2005/4/1</t>
-  </si>
-  <si>
-    <t>2005/5/1</t>
-  </si>
-  <si>
-    <t>2005/6/1</t>
-  </si>
-  <si>
-    <t>2005/7/1</t>
-  </si>
-  <si>
-    <t>2005/8/1</t>
-  </si>
-  <si>
-    <t>2005/9/1</t>
-  </si>
-  <si>
-    <t>2005/10/1</t>
-  </si>
-  <si>
-    <t>2005/11/1</t>
-  </si>
-  <si>
-    <t>2005/12/1</t>
-  </si>
-  <si>
-    <t>2006/1/1</t>
-  </si>
-  <si>
-    <t>2006/2/1</t>
-  </si>
-  <si>
-    <t>2006/3/1</t>
-  </si>
-  <si>
-    <t>2006/4/1</t>
-  </si>
-  <si>
-    <t>2006/5/1</t>
-  </si>
-  <si>
-    <t>2006/6/1</t>
-  </si>
-  <si>
-    <t>2006/7/1</t>
-  </si>
-  <si>
-    <t>2006/8/1</t>
-  </si>
-  <si>
-    <t>2006/9/1</t>
-  </si>
-  <si>
-    <t>2006/10/1</t>
-  </si>
-  <si>
-    <t>2006/11/1</t>
-  </si>
-  <si>
-    <t>2006/12/1</t>
-  </si>
-  <si>
-    <t>2007/1/1</t>
-  </si>
-  <si>
-    <t>2007/2/1</t>
-  </si>
-  <si>
-    <t>2007/3/1</t>
-  </si>
-  <si>
-    <t>2007/4/1</t>
-  </si>
-  <si>
-    <t>2007/5/1</t>
-  </si>
-  <si>
-    <t>2007/6/1</t>
-  </si>
-  <si>
-    <t>2007/7/1</t>
-  </si>
-  <si>
-    <t>2007/8/1</t>
-  </si>
-  <si>
-    <t>2007/9/1</t>
-  </si>
-  <si>
-    <t>2007/10/1</t>
-  </si>
-  <si>
-    <t>2007/11/1</t>
-  </si>
-  <si>
-    <t>2007/12/1</t>
-  </si>
-  <si>
-    <t>2008/1/1</t>
-  </si>
-  <si>
-    <t>2008/2/1</t>
-  </si>
-  <si>
-    <t>2008/3/1</t>
-  </si>
-  <si>
-    <t>2008/4/1</t>
-  </si>
-  <si>
-    <t>2008/5/1</t>
-  </si>
-  <si>
-    <t>2008/6/1</t>
-  </si>
-  <si>
-    <t>2008/7/1</t>
-  </si>
-  <si>
-    <t>2008/8/1</t>
-  </si>
-  <si>
-    <t>2008/9/1</t>
-  </si>
-  <si>
-    <t>2008/10/1</t>
-  </si>
-  <si>
-    <t>2008/11/1</t>
-  </si>
-  <si>
-    <t>2008/12/1</t>
-  </si>
-  <si>
-    <t>2009/1/1</t>
-  </si>
-  <si>
-    <t>2009/2/1</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>2009/3/1</t>
-  </si>
-  <si>
-    <t>2009/4/1</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>2009/5/1</t>
-  </si>
-  <si>
-    <t>2009/6/1</t>
-  </si>
-  <si>
-    <t>2009/7/1</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>2009/8/1</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>2009/9/1</t>
-  </si>
-  <si>
-    <t>2009/10/1</t>
-  </si>
-  <si>
-    <t>2009/11/1</t>
-  </si>
-  <si>
-    <t>2009/12/1</t>
-  </si>
-  <si>
-    <t>2010/1/1</t>
-  </si>
-  <si>
-    <t>2010/2/1</t>
-  </si>
-  <si>
-    <t>2010/3/1</t>
-  </si>
-  <si>
-    <t>2010/4/1</t>
-  </si>
-  <si>
-    <t>2010/5/1</t>
-  </si>
-  <si>
-    <t>2010/6/1</t>
-  </si>
-  <si>
-    <t>2010/7/1</t>
-  </si>
-  <si>
-    <t>2010/8/1</t>
-  </si>
-  <si>
-    <t>2010/9/1</t>
-  </si>
-  <si>
-    <t>2010/10/1</t>
-  </si>
-  <si>
-    <t>2010/11/1</t>
-  </si>
-  <si>
-    <t>2010/12/1</t>
-  </si>
-  <si>
-    <t>2011/1/1</t>
-  </si>
-  <si>
-    <t>2011/2/1</t>
-  </si>
-  <si>
-    <t>2011/3/1</t>
-  </si>
-  <si>
-    <t>2011/4/1</t>
-  </si>
-  <si>
-    <t>2011/5/1</t>
-  </si>
-  <si>
-    <t>2011/6/1</t>
-  </si>
-  <si>
-    <t>2011/7/1</t>
-  </si>
-  <si>
-    <t>2011/8/1</t>
-  </si>
-  <si>
-    <t>2011/9/1</t>
-  </si>
-  <si>
-    <t>2011/10/1</t>
-  </si>
-  <si>
-    <t>2011/11/1</t>
-  </si>
-  <si>
-    <t>2011/12/1</t>
-  </si>
-  <si>
-    <t>2012/1/1</t>
-  </si>
-  <si>
-    <t>2012/2/1</t>
-  </si>
-  <si>
-    <t>2012/3/1</t>
-  </si>
-  <si>
-    <t>2012/4/1</t>
-  </si>
-  <si>
-    <t>2012/5/1</t>
-  </si>
-  <si>
-    <t>2012/6/1</t>
-  </si>
-  <si>
-    <t>2012/7/1</t>
-  </si>
-  <si>
-    <t>2012/8/1</t>
-  </si>
-  <si>
-    <t>2012/9/1</t>
-  </si>
-  <si>
-    <t>2012/10/1</t>
-  </si>
-  <si>
-    <t>2012/11/1</t>
-  </si>
-  <si>
-    <t>2012/12/1</t>
-  </si>
-  <si>
-    <t>2013/1/1</t>
-  </si>
-  <si>
-    <t>2013/2/1</t>
-  </si>
-  <si>
-    <t>2013/3/1</t>
-  </si>
-  <si>
-    <t>2013/4/1</t>
-  </si>
-  <si>
-    <t>2013/5/1</t>
-  </si>
-  <si>
-    <t>2013/6/1</t>
-  </si>
-  <si>
-    <t>2013/7/1</t>
-  </si>
-  <si>
-    <t>2013/8/1</t>
-  </si>
-  <si>
-    <t>2013/9/1</t>
-  </si>
-  <si>
-    <t>2013/10/1</t>
-  </si>
-  <si>
-    <t>2013/11/1</t>
-  </si>
-  <si>
-    <t>2013/12/1</t>
-  </si>
-  <si>
-    <t>2014/1/1</t>
-  </si>
-  <si>
-    <t>2014/2/1</t>
-  </si>
-  <si>
-    <t>2014/3/1</t>
-  </si>
-  <si>
-    <t>2014/4/1</t>
-  </si>
-  <si>
-    <t>2014/5/1</t>
-  </si>
-  <si>
-    <t>2014/6/1</t>
-  </si>
-  <si>
-    <t>2014/7/1</t>
-  </si>
-  <si>
-    <t>2014/8/1</t>
-  </si>
-  <si>
-    <t>2014/9/1</t>
-  </si>
-  <si>
-    <t>2014/10/1</t>
-  </si>
-  <si>
-    <t>2014/11/1</t>
-  </si>
-  <si>
-    <t>2014/12/1</t>
-  </si>
-  <si>
-    <t>2015/1/1</t>
-  </si>
-  <si>
-    <t>2015/2/1</t>
-  </si>
-  <si>
-    <t>2015/3/1</t>
-  </si>
-  <si>
-    <t>2015/4/1</t>
-  </si>
-  <si>
-    <t>2015/5/1</t>
-  </si>
-  <si>
-    <t>2015/6/1</t>
-  </si>
-  <si>
-    <t>2015/7/1</t>
-  </si>
-  <si>
-    <t>2015/8/1</t>
-  </si>
-  <si>
-    <t>2015/9/1</t>
-  </si>
-  <si>
-    <t>2015/10/1</t>
-  </si>
-  <si>
-    <t>2015/11/1</t>
-  </si>
-  <si>
-    <t>2015/12/1</t>
-  </si>
-  <si>
-    <t>2016/1/1</t>
-  </si>
-  <si>
-    <t>2016/2/1</t>
-  </si>
-  <si>
-    <t>2016/3/1</t>
-  </si>
-  <si>
-    <t>2016/4/1</t>
-  </si>
-  <si>
-    <t>2016/5/1</t>
-  </si>
-  <si>
-    <t>2016/6/1</t>
-  </si>
-  <si>
-    <t>2016/7/1</t>
-  </si>
-  <si>
-    <t>2016/8/1</t>
-  </si>
-  <si>
-    <t>2016/9/1</t>
-  </si>
-  <si>
-    <t>2016/10/1</t>
-  </si>
-  <si>
-    <t>2016/11/1</t>
-  </si>
-  <si>
-    <t>2016/12/1</t>
-  </si>
-  <si>
-    <t>2017/1/1</t>
-  </si>
-  <si>
-    <t>2017/2/1</t>
-  </si>
-  <si>
-    <t>2017/3/1</t>
-  </si>
-  <si>
-    <t>2017/4/1</t>
-  </si>
-  <si>
-    <t>2017/5/1</t>
-  </si>
-  <si>
-    <t>2017/6/1</t>
-  </si>
-  <si>
-    <t>2017/7/1</t>
-  </si>
-  <si>
     <t>2017/8/1</t>
   </si>
   <si>
@@ -1300,21 +1300,21 @@
     <t>2018/9/1</t>
   </si>
   <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>2018/10/1</t>
+  </si>
+  <si>
     <t>38</t>
   </si>
   <si>
-    <t>2018/10/1</t>
-  </si>
-  <si>
     <t>2018/11/1</t>
   </si>
   <si>
     <t>2018/12/1</t>
   </si>
   <si>
-    <t>39</t>
-  </si>
-  <si>
     <t>2019/1/1</t>
   </si>
   <si>
@@ -1402,24 +1402,27 @@
     <t>2021/4/1</t>
   </si>
   <si>
-    <t>43</t>
+    <t>44</t>
   </si>
   <si>
     <t>2021/5/1</t>
   </si>
   <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>2021/6/1</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>2021/7/1</t>
+  </si>
+  <si>
     <t>49</t>
   </si>
   <si>
-    <t>2021/6/1</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>2021/7/1</t>
-  </si>
-  <si>
     <t>2021/8/1</t>
   </si>
   <si>
@@ -1429,31 +1432,37 @@
     <t>2021/9/1</t>
   </si>
   <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>2021/10/1</t>
+  </si>
+  <si>
+    <t>2021/11/1</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>2021/12/1</t>
+  </si>
+  <si>
+    <t>2022/1/1</t>
+  </si>
+  <si>
+    <t>2022/2/1</t>
+  </si>
+  <si>
+    <t>2022/3/1</t>
+  </si>
+  <si>
+    <t>2022/4/1</t>
+  </si>
+  <si>
+    <t>2022/5/1</t>
+  </si>
+  <si>
     <t>51</t>
-  </si>
-  <si>
-    <t>2021/10/1</t>
-  </si>
-  <si>
-    <t>2021/11/1</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>2021/12/1</t>
-  </si>
-  <si>
-    <t>2022/1/1</t>
-  </si>
-  <si>
-    <t>2022/2/1</t>
-  </si>
-  <si>
-    <t>2022/3/1</t>
-  </si>
-  <si>
-    <t>2022/4/1</t>
   </si>
 </sst>
 </file>
@@ -1853,7 +1862,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B437"/>
+  <dimension ref="A1:B438"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1926,7 +1935,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1934,7 +1943,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1942,7 +1951,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1998,7 +2007,7 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2030,15 +2039,15 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
         <v>30</v>
-      </c>
-      <c r="B22" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2054,28 +2063,28 @@
         <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
         <v>33</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
@@ -2083,7 +2092,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -2091,10 +2100,10 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -2110,7 +2119,7 @@
         <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -2118,7 +2127,7 @@
         <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2134,15 +2143,15 @@
         <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" t="s">
         <v>46</v>
-      </c>
-      <c r="B35" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -2158,7 +2167,7 @@
         <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -2166,7 +2175,7 @@
         <v>50</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -2182,7 +2191,7 @@
         <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -2190,7 +2199,7 @@
         <v>53</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -2198,7 +2207,7 @@
         <v>54</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -2230,7 +2239,7 @@
         <v>58</v>
       </c>
       <c r="B46" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -2238,7 +2247,7 @@
         <v>59</v>
       </c>
       <c r="B47" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -2246,7 +2255,7 @@
         <v>60</v>
       </c>
       <c r="B48" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -2254,7 +2263,7 @@
         <v>61</v>
       </c>
       <c r="B49" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -2270,7 +2279,7 @@
         <v>63</v>
       </c>
       <c r="B51" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -2286,7 +2295,7 @@
         <v>65</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -2294,7 +2303,7 @@
         <v>66</v>
       </c>
       <c r="B54" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -2326,7 +2335,7 @@
         <v>70</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -2350,7 +2359,7 @@
         <v>73</v>
       </c>
       <c r="B61" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -2358,7 +2367,7 @@
         <v>74</v>
       </c>
       <c r="B62" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -2374,7 +2383,7 @@
         <v>77</v>
       </c>
       <c r="B64" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -2382,7 +2391,7 @@
         <v>78</v>
       </c>
       <c r="B65" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -2390,7 +2399,7 @@
         <v>79</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -2406,7 +2415,7 @@
         <v>81</v>
       </c>
       <c r="B68" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -2422,7 +2431,7 @@
         <v>83</v>
       </c>
       <c r="B70" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -2478,7 +2487,7 @@
         <v>92</v>
       </c>
       <c r="B77" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -2486,7 +2495,7 @@
         <v>93</v>
       </c>
       <c r="B78" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -2494,7 +2503,7 @@
         <v>94</v>
       </c>
       <c r="B79" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -2502,7 +2511,7 @@
         <v>95</v>
       </c>
       <c r="B80" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -2518,7 +2527,7 @@
         <v>97</v>
       </c>
       <c r="B82" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -2534,7 +2543,7 @@
         <v>99</v>
       </c>
       <c r="B84" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -2542,7 +2551,7 @@
         <v>100</v>
       </c>
       <c r="B85" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -2550,7 +2559,7 @@
         <v>101</v>
       </c>
       <c r="B86" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -2566,7 +2575,7 @@
         <v>103</v>
       </c>
       <c r="B88" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -2574,7 +2583,7 @@
         <v>104</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -2590,7 +2599,7 @@
         <v>106</v>
       </c>
       <c r="B91" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -2598,7 +2607,7 @@
         <v>107</v>
       </c>
       <c r="B92" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -2606,7 +2615,7 @@
         <v>108</v>
       </c>
       <c r="B93" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -2614,7 +2623,7 @@
         <v>109</v>
       </c>
       <c r="B94" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -2662,7 +2671,7 @@
         <v>115</v>
       </c>
       <c r="B100" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -2670,7 +2679,7 @@
         <v>116</v>
       </c>
       <c r="B101" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -2694,7 +2703,7 @@
         <v>119</v>
       </c>
       <c r="B104" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -2702,7 +2711,7 @@
         <v>120</v>
       </c>
       <c r="B105" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -2710,7 +2719,7 @@
         <v>121</v>
       </c>
       <c r="B106" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -2726,7 +2735,7 @@
         <v>123</v>
       </c>
       <c r="B108" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -2734,7 +2743,7 @@
         <v>124</v>
       </c>
       <c r="B109" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -2742,7 +2751,7 @@
         <v>125</v>
       </c>
       <c r="B110" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -2750,7 +2759,7 @@
         <v>126</v>
       </c>
       <c r="B111" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -2766,7 +2775,7 @@
         <v>128</v>
       </c>
       <c r="B113" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -2774,12 +2783,12 @@
         <v>129</v>
       </c>
       <c r="B114" t="s">
-        <v>130</v>
+        <v>36</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B115" t="s">
         <v>44</v>
@@ -2787,15 +2796,15 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B116" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B117" t="s">
         <v>44</v>
@@ -2803,23 +2812,23 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B118" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B119" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B120" t="s">
         <v>44</v>
@@ -2827,31 +2836,31 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B121" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B122" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B123" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B124" t="s">
         <v>44</v>
@@ -2859,26 +2868,26 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B125" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
+        <v>141</v>
+      </c>
+      <c r="B126" t="s">
         <v>142</v>
-      </c>
-      <c r="B126" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
+        <v>143</v>
+      </c>
+      <c r="B127" t="s">
         <v>144</v>
-      </c>
-      <c r="B127" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -2886,7 +2895,7 @@
         <v>145</v>
       </c>
       <c r="B128" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -2902,7 +2911,7 @@
         <v>148</v>
       </c>
       <c r="B130" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -2910,7 +2919,7 @@
         <v>149</v>
       </c>
       <c r="B131" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -2918,7 +2927,7 @@
         <v>150</v>
       </c>
       <c r="B132" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -2926,7 +2935,7 @@
         <v>151</v>
       </c>
       <c r="B133" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -2934,7 +2943,7 @@
         <v>152</v>
       </c>
       <c r="B134" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -2942,7 +2951,7 @@
         <v>153</v>
       </c>
       <c r="B135" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -2950,7 +2959,7 @@
         <v>154</v>
       </c>
       <c r="B136" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -2958,7 +2967,7 @@
         <v>155</v>
       </c>
       <c r="B137" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -2966,7 +2975,7 @@
         <v>156</v>
       </c>
       <c r="B138" t="s">
-        <v>130</v>
+        <v>36</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -2974,7 +2983,7 @@
         <v>157</v>
       </c>
       <c r="B139" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -2990,7 +2999,7 @@
         <v>160</v>
       </c>
       <c r="B141" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -2998,7 +3007,7 @@
         <v>161</v>
       </c>
       <c r="B142" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -3030,7 +3039,7 @@
         <v>165</v>
       </c>
       <c r="B146" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -3038,7 +3047,7 @@
         <v>166</v>
       </c>
       <c r="B147" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -3054,7 +3063,7 @@
         <v>168</v>
       </c>
       <c r="B149" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -3062,7 +3071,7 @@
         <v>169</v>
       </c>
       <c r="B150" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -3094,7 +3103,7 @@
         <v>174</v>
       </c>
       <c r="B154" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -3150,20 +3159,20 @@
         <v>183</v>
       </c>
       <c r="B161" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B162" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B163" t="s">
         <v>171</v>
@@ -3171,7 +3180,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B164" t="s">
         <v>159</v>
@@ -3179,23 +3188,23 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B165" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B166" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B167" t="s">
         <v>176</v>
@@ -3203,7 +3212,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B168" t="s">
         <v>171</v>
@@ -3211,7 +3220,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B169" t="s">
         <v>176</v>
@@ -3219,7 +3228,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -3227,7 +3236,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B171" t="s">
         <v>171</v>
@@ -3235,10 +3244,10 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B172" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -3246,7 +3255,7 @@
         <v>196</v>
       </c>
       <c r="B173" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -3262,36 +3271,36 @@
         <v>199</v>
       </c>
       <c r="B175" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B176" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B177" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B178" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B179" t="s">
         <v>176</v>
@@ -3299,15 +3308,15 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
+        <v>204</v>
+      </c>
+      <c r="B180" t="s">
         <v>205</v>
-      </c>
-      <c r="B180" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B181" t="s">
         <v>176</v>
@@ -3315,7 +3324,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B182" t="s">
         <v>171</v>
@@ -3323,7 +3332,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B183" t="s">
         <v>171</v>
@@ -3331,47 +3340,47 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B184" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B185" t="s">
-        <v>35</v>
+        <v>142</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B186" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B187" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B188" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B189" t="s">
         <v>159</v>
@@ -3379,23 +3388,23 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B190" t="s">
-        <v>35</v>
+        <v>142</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B191" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B192" t="s">
         <v>7</v>
@@ -3403,15 +3412,15 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B193" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B194" t="s">
         <v>7</v>
@@ -3419,7 +3428,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B195" t="s">
         <v>7</v>
@@ -3427,47 +3436,47 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B196" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B197" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B198" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B199" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B200" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B201" t="s">
         <v>7</v>
@@ -3475,15 +3484,15 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B202" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B203" t="s">
         <v>7</v>
@@ -3491,23 +3500,23 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B204" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B205" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B206" t="s">
         <v>7</v>
@@ -3515,7 +3524,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B207" t="s">
         <v>7</v>
@@ -3523,7 +3532,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B208" t="s">
         <v>3</v>
@@ -3531,55 +3540,55 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B209" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B210" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B211" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B212" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B213" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B215" t="s">
         <v>3</v>
@@ -3587,7 +3596,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B216" t="s">
         <v>7</v>
@@ -3595,15 +3604,15 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B217" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B218" t="s">
         <v>7</v>
@@ -3611,7 +3620,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B219" t="s">
         <v>7</v>
@@ -3619,39 +3628,39 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B220" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B221" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B222" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B223" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B224" t="s">
         <v>44</v>
@@ -3659,23 +3668,23 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B225" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B226" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B227" t="s">
         <v>44</v>
@@ -3683,15 +3692,15 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B228" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B229" t="s">
         <v>44</v>
@@ -3699,15 +3708,15 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B230" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B231" t="s">
         <v>44</v>
@@ -3715,47 +3724,47 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B232" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B233" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B234" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B235" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B236" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B237" t="s">
         <v>44</v>
@@ -3763,55 +3772,55 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B238" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B239" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B240" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B241" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B242" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B243" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B244" t="s">
         <v>44</v>
@@ -3819,63 +3828,63 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B245" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B246" t="s">
-        <v>130</v>
+        <v>36</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B247" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B248" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B249" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B250" t="s">
-        <v>35</v>
+        <v>142</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B251" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B252" t="s">
         <v>44</v>
@@ -3883,7 +3892,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B253" t="s">
         <v>7</v>
@@ -3891,55 +3900,55 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B254" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B255" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B256" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B257" t="s">
-        <v>35</v>
+        <v>142</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B258" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B259" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B260" t="s">
         <v>44</v>
@@ -3947,55 +3956,55 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B261" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B262" t="s">
-        <v>35</v>
+        <v>142</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B263" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B264" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B265" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B266" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B267" t="s">
         <v>7</v>
@@ -4003,7 +4012,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B268" t="s">
         <v>7</v>
@@ -4011,15 +4020,15 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B269" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B270" t="s">
         <v>11</v>
@@ -4027,15 +4036,15 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B271" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B272" t="s">
         <v>17</v>
@@ -4043,7 +4052,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B273" t="s">
         <v>5</v>
@@ -4051,15 +4060,15 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B274" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B275" t="s">
         <v>5</v>
@@ -4067,15 +4076,15 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B276" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B277" t="s">
         <v>5</v>
@@ -4083,7 +4092,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B278" t="s">
         <v>86</v>
@@ -4091,39 +4100,39 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
+        <v>304</v>
+      </c>
+      <c r="B279" t="s">
         <v>305</v>
-      </c>
-      <c r="B279" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B280" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
+        <v>307</v>
+      </c>
+      <c r="B281" t="s">
         <v>308</v>
-      </c>
-      <c r="B281" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B282" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B283" t="s">
         <v>86</v>
@@ -4131,143 +4140,143 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B284" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B285" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B286" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B287" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B288" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B289" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B290" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B291" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B292" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B293" t="s">
-        <v>306</v>
+        <v>86</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B294" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B295" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B296" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B297" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B298" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B299" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B300" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B301" t="s">
         <v>76</v>
@@ -4275,7 +4284,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B302" t="s">
         <v>76</v>
@@ -4283,7 +4292,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B303" t="s">
         <v>5</v>
@@ -4291,39 +4300,39 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B304" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B305" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B306" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B307" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B308" t="s">
         <v>88</v>
@@ -4331,7 +4340,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B309" t="s">
         <v>5</v>
@@ -4339,15 +4348,15 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B310" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B311" t="s">
         <v>5</v>
@@ -4355,7 +4364,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B312" t="s">
         <v>17</v>
@@ -4363,15 +4372,15 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B313" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B314" t="s">
         <v>3</v>
@@ -4379,55 +4388,55 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B315" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B316" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B317" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B318" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B319" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B320" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B321" t="s">
         <v>17</v>
@@ -4435,23 +4444,23 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B322" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B323" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B324" t="s">
         <v>3</v>
@@ -4459,15 +4468,15 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B325" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B326" t="s">
         <v>3</v>
@@ -4475,15 +4484,15 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B327" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B328" t="s">
         <v>3</v>
@@ -4491,23 +4500,23 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B329" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B330" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B331" t="s">
         <v>7</v>
@@ -4515,15 +4524,15 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B332" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B333" t="s">
         <v>3</v>
@@ -4531,31 +4540,31 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B334" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B335" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B336" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B337" t="s">
         <v>44</v>
@@ -4563,111 +4572,111 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B338" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B339" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B340" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B341" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B342" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B343" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B344" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B345" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B346" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B347" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B348" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B349" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B350" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B351" t="s">
         <v>147</v>
@@ -4675,47 +4684,47 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B352" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B353" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B354" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B355" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B356" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B357" t="s">
         <v>147</v>
@@ -4723,23 +4732,23 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B358" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B359" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B360" t="s">
         <v>147</v>
@@ -4747,7 +4756,7 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B361" t="s">
         <v>147</v>
@@ -4755,7 +4764,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B362" t="s">
         <v>159</v>
@@ -4763,39 +4772,39 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B363" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B364" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B365" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B366" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B367" t="s">
         <v>159</v>
@@ -4803,15 +4812,15 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B368" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B369" t="s">
         <v>179</v>
@@ -4819,15 +4828,15 @@
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B370" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B371" t="s">
         <v>147</v>
@@ -4835,7 +4844,7 @@
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B372" t="s">
         <v>171</v>
@@ -4843,7 +4852,7 @@
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B373" t="s">
         <v>159</v>
@@ -4851,7 +4860,7 @@
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B374" t="s">
         <v>171</v>
@@ -4859,7 +4868,7 @@
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B375" t="s">
         <v>171</v>
@@ -4867,7 +4876,7 @@
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B376" t="s">
         <v>179</v>
@@ -4875,15 +4884,15 @@
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B377" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B378" t="s">
         <v>198</v>
@@ -4891,7 +4900,7 @@
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B379" t="s">
         <v>179</v>
@@ -4899,10 +4908,10 @@
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
+        <v>409</v>
+      </c>
+      <c r="B380" t="s">
         <v>410</v>
-      </c>
-      <c r="B380" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
@@ -4918,7 +4927,7 @@
         <v>412</v>
       </c>
       <c r="B382" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
@@ -4926,7 +4935,7 @@
         <v>413</v>
       </c>
       <c r="B383" t="s">
-        <v>198</v>
+        <v>410</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
@@ -4950,7 +4959,7 @@
         <v>416</v>
       </c>
       <c r="B386" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
@@ -4958,7 +4967,7 @@
         <v>417</v>
       </c>
       <c r="B387" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
@@ -4966,7 +4975,7 @@
         <v>418</v>
       </c>
       <c r="B388" t="s">
-        <v>198</v>
+        <v>410</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
@@ -4974,7 +4983,7 @@
         <v>419</v>
       </c>
       <c r="B389" t="s">
-        <v>200</v>
+        <v>410</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
@@ -4982,7 +4991,7 @@
         <v>420</v>
       </c>
       <c r="B390" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
@@ -4990,7 +4999,7 @@
         <v>421</v>
       </c>
       <c r="B391" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
@@ -5022,23 +5031,23 @@
         <v>427</v>
       </c>
       <c r="B395" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B396" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B397" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
@@ -5046,7 +5055,7 @@
         <v>431</v>
       </c>
       <c r="B398" t="s">
-        <v>198</v>
+        <v>410</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
@@ -5054,7 +5063,7 @@
         <v>432</v>
       </c>
       <c r="B399" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
@@ -5062,7 +5071,7 @@
         <v>433</v>
       </c>
       <c r="B400" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
@@ -5070,7 +5079,7 @@
         <v>434</v>
       </c>
       <c r="B401" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
@@ -5078,7 +5087,7 @@
         <v>435</v>
       </c>
       <c r="B402" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
@@ -5086,7 +5095,7 @@
         <v>436</v>
       </c>
       <c r="B403" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
@@ -5094,7 +5103,7 @@
         <v>437</v>
       </c>
       <c r="B404" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
@@ -5102,7 +5111,7 @@
         <v>438</v>
       </c>
       <c r="B405" t="s">
-        <v>198</v>
+        <v>410</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
@@ -5110,7 +5119,7 @@
         <v>439</v>
       </c>
       <c r="B406" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
@@ -5118,7 +5127,7 @@
         <v>440</v>
       </c>
       <c r="B407" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
@@ -5126,7 +5135,7 @@
         <v>441</v>
       </c>
       <c r="B408" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
@@ -5134,7 +5143,7 @@
         <v>442</v>
       </c>
       <c r="B409" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
@@ -5142,7 +5151,7 @@
         <v>443</v>
       </c>
       <c r="B410" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
@@ -5158,7 +5167,7 @@
         <v>445</v>
       </c>
       <c r="B412" t="s">
-        <v>198</v>
+        <v>410</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
@@ -5166,7 +5175,7 @@
         <v>446</v>
       </c>
       <c r="B413" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
@@ -5174,7 +5183,7 @@
         <v>447</v>
       </c>
       <c r="B414" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
@@ -5198,7 +5207,7 @@
         <v>450</v>
       </c>
       <c r="B417" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
@@ -5206,7 +5215,7 @@
         <v>451</v>
       </c>
       <c r="B418" t="s">
-        <v>206</v>
+        <v>423</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
@@ -5214,7 +5223,7 @@
         <v>452</v>
       </c>
       <c r="B419" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
@@ -5222,7 +5231,7 @@
         <v>453</v>
       </c>
       <c r="B420" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
@@ -5238,7 +5247,7 @@
         <v>455</v>
       </c>
       <c r="B422" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
@@ -5246,7 +5255,7 @@
         <v>456</v>
       </c>
       <c r="B423" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
@@ -5286,84 +5295,93 @@
         <v>465</v>
       </c>
       <c r="B428" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B429" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B430" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B431" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B432" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B433" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B434" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B435" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B436" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B437" t="s">
-        <v>464</v>
+        <v>473</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>479</v>
+      </c>
+      <c r="B438" t="s">
+        <v>480</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>